--- a/data/trans_orig/P62AS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D849BC5-A00C-4956-A7E6-14CAD6DC2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{356F1E6F-541B-438A-AD39-628D4D48C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1AD8391-14B5-4497-BBA3-1D0CB56CB2D4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B256A0-8E57-4190-95C7-56B50FAA25DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="593">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 1 en 2007 (Tasa respuesta: 20,17%)</t>
   </si>
@@ -112,49 +112,49 @@
     <t>16,65%</t>
   </si>
   <si>
-    <t>78,14%</t>
+    <t>66,42%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>42,19%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>17,52%</t>
+    <t>16,9%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -163,19 +163,19 @@
     <t>19,17%</t>
   </si>
   <si>
-    <t>53,56%</t>
+    <t>52,19%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>36,59%</t>
+    <t>40,39%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>77,42%</t>
+    <t>78,06%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -184,61 +184,58 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>32,84%</t>
+    <t>35,6%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>26,37%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>60,46%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>53,19%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>57,3%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -247,40 +244,43 @@
     <t>15,12%</t>
   </si>
   <si>
-    <t>32,03%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>35,87%</t>
+    <t>36,47%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -289,16 +289,16 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>9,54%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>8,01%</t>
@@ -307,1465 +307,1480 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
     <t>55,27%</t>
   </si>
   <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>15,91%</t>
@@ -1774,34 +1789,34 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C5361C-D850-4A74-9937-D45C25501AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77AB25E-B180-4D8E-8059-BD30A2ABB74D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2851,13 +2866,13 @@
         <v>1853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2866,13 +2881,13 @@
         <v>3140</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2881,13 +2896,13 @@
         <v>4993</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2917,13 @@
         <v>15156</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -2917,13 +2932,13 @@
         <v>10259</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -2932,13 +2947,13 @@
         <v>25415</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2974,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2968,10 +2983,10 @@
         <v>2916</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>69</v>
@@ -3022,7 +3037,7 @@
         <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>77</v>
@@ -3144,7 +3159,7 @@
         <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3174,13 @@
         <v>25310</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3174,13 +3189,13 @@
         <v>12285</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -3189,13 +3204,13 @@
         <v>37595</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3225,13 +3240,13 @@
         <v>11196</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -3240,13 +3255,13 @@
         <v>12257</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3276,13 @@
         <v>18359</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3276,13 +3291,13 @@
         <v>11686</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3291,13 +3306,13 @@
         <v>30046</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,7 +3368,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3365,13 +3380,13 @@
         <v>857</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3380,13 +3395,13 @@
         <v>3197</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3395,13 +3410,13 @@
         <v>4053</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3431,13 @@
         <v>27377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -3431,13 +3446,13 @@
         <v>13778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -3446,13 +3461,13 @@
         <v>41155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3488,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -3482,13 +3497,13 @@
         <v>36013</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3497,13 +3512,13 @@
         <v>36013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3533,13 @@
         <v>140572</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H27" s="7">
         <v>27</v>
@@ -3533,13 +3548,13 @@
         <v>26939</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M27" s="7">
         <v>170</v>
@@ -3548,13 +3563,13 @@
         <v>167511</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3625,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3622,13 +3637,13 @@
         <v>886</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3637,13 +3652,13 @@
         <v>8101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3652,13 +3667,13 @@
         <v>8987</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3688,13 @@
         <v>934</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3688,13 +3703,13 @@
         <v>8258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -3703,13 +3718,13 @@
         <v>9192</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3739,13 @@
         <v>965</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>215</v>
@@ -3739,13 +3754,13 @@
         <v>228252</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>216</v>
@@ -3754,13 +3769,13 @@
         <v>229216</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3790,13 @@
         <v>489267</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>175</v>
@@ -3790,13 +3805,13 @@
         <v>179433</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>684</v>
@@ -3805,13 +3820,13 @@
         <v>668700</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3894,13 @@
         <v>6458</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -3894,13 +3909,13 @@
         <v>27202</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -3909,13 +3924,13 @@
         <v>33660</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3945,13 @@
         <v>72092</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>46</v>
@@ -3945,13 +3960,13 @@
         <v>47411</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -3960,13 +3975,13 @@
         <v>119503</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3996,13 @@
         <v>2025</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>267</v>
@@ -3996,13 +4011,13 @@
         <v>280443</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>269</v>
@@ -4011,13 +4026,13 @@
         <v>282468</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4047,13 @@
         <v>657299</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H37" s="7">
         <v>217</v>
@@ -4047,13 +4062,13 @@
         <v>221030</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>895</v>
@@ -4062,13 +4077,13 @@
         <v>878329</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4139,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4146,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ED7AA5-11AE-4C82-A040-3F53A650CA6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEFECCB-5942-4640-B8D3-91BAD1B004FE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4270,10 +4285,10 @@
         <v>2971</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4288,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4300,10 +4315,10 @@
         <v>12648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4321,13 +4336,13 @@
         <v>960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4342,7 +4357,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4351,13 +4366,13 @@
         <v>960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4393,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4393,7 +4408,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4408,7 +4423,7 @@
         <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4444,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4444,7 +4459,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4459,7 +4474,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4542,13 @@
         <v>5908</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -4542,13 +4557,13 @@
         <v>19536</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4557,13 +4572,13 @@
         <v>25444</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4593,13 @@
         <v>9878</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4593,13 +4608,13 @@
         <v>4799</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4608,13 +4623,13 @@
         <v>14677</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4644,13 @@
         <v>964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4650,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4659,13 +4674,13 @@
         <v>964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4701,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4701,7 +4716,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4716,7 +4731,7 @@
         <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4799,13 @@
         <v>20192</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4799,13 +4814,13 @@
         <v>17794</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -4814,13 +4829,13 @@
         <v>37985</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4850,13 @@
         <v>25596</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -4850,13 +4865,13 @@
         <v>18952</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -4865,13 +4880,13 @@
         <v>44548</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4901,13 +4916,13 @@
         <v>2921</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4916,13 +4931,13 @@
         <v>2921</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4952,13 @@
         <v>935</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4958,7 +4973,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4967,13 +4982,13 @@
         <v>935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5056,13 @@
         <v>14410</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5056,13 +5071,13 @@
         <v>16774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5071,13 +5086,13 @@
         <v>31184</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5107,13 @@
         <v>54957</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5107,13 +5122,13 @@
         <v>19349</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -5122,13 +5137,13 @@
         <v>74306</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,7 +5164,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -5158,13 +5173,13 @@
         <v>15292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -5173,13 +5188,13 @@
         <v>15292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5209,13 @@
         <v>6460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5209,13 +5224,13 @@
         <v>3220</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -5224,13 +5239,13 @@
         <v>9680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,7 +5301,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5298,13 +5313,13 @@
         <v>14813</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5316,10 +5331,10 @@
         <v>87</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -5328,13 +5343,13 @@
         <v>22488</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5364,13 @@
         <v>46283</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5364,13 +5379,13 @@
         <v>24660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -5379,13 +5394,13 @@
         <v>70943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,7 +5421,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -5415,13 +5430,13 @@
         <v>39490</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5430,13 +5445,13 @@
         <v>39490</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5466,13 @@
         <v>112330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -5466,13 +5481,13 @@
         <v>23929</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M27" s="7">
         <v>125</v>
@@ -5481,13 +5496,13 @@
         <v>136259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,7 +5558,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5555,13 +5570,13 @@
         <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -5570,13 +5585,13 @@
         <v>24621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -5585,13 +5600,13 @@
         <v>25599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5621,13 @@
         <v>5276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5621,13 +5636,13 @@
         <v>9632</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -5636,13 +5651,13 @@
         <v>14908</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>362</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5672,13 @@
         <v>2075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H31" s="7">
         <v>232</v>
@@ -5672,13 +5687,13 @@
         <v>248928</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M31" s="7">
         <v>233</v>
@@ -5687,13 +5702,13 @@
         <v>251004</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5723,13 @@
         <v>546132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H32" s="7">
         <v>221</v>
@@ -5723,13 +5738,13 @@
         <v>238837</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>714</v>
@@ -5738,13 +5753,13 @@
         <v>784969</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5827,13 @@
         <v>59271</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H34" s="7">
         <v>88</v>
@@ -5827,13 +5842,13 @@
         <v>96076</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M34" s="7">
         <v>140</v>
@@ -5842,13 +5857,13 @@
         <v>155347</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5878,13 @@
         <v>142949</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -5878,13 +5893,13 @@
         <v>77392</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M35" s="7">
         <v>197</v>
@@ -5893,13 +5908,13 @@
         <v>220341</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5929,13 @@
         <v>3039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H36" s="7">
         <v>285</v>
@@ -5929,13 +5944,13 @@
         <v>306632</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M36" s="7">
         <v>287</v>
@@ -5944,13 +5959,13 @@
         <v>309671</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5980,13 @@
         <v>665857</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7">
         <v>246</v>
@@ -5980,13 +5995,13 @@
         <v>265986</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>849</v>
@@ -5995,13 +6010,13 @@
         <v>931843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,7 +6072,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6079,7 +6094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD27B781-510A-4E4B-BD9A-17C4F6E9A09C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E2E1B6-75A4-4A5D-B4A9-9B074BE69C7B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6096,7 +6111,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6206,7 +6221,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -6221,7 +6236,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -6236,7 +6251,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -6260,7 +6275,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6275,7 +6290,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6290,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,7 +6326,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6326,7 +6341,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6341,7 +6356,7 @@
         <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,7 +6377,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6377,7 +6392,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6392,7 +6407,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6475,13 @@
         <v>7468</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6475,10 +6490,10 @@
         <v>10945</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>11</v>
@@ -6490,13 +6505,13 @@
         <v>18412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6526,13 @@
         <v>4983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6526,13 +6541,13 @@
         <v>1905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -6541,13 +6556,13 @@
         <v>6888</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6583,7 +6598,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6598,7 +6613,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6628,13 @@
         <v>1989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6634,7 +6649,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6643,13 +6658,13 @@
         <v>1989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6732,13 @@
         <v>12297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -6732,13 +6747,13 @@
         <v>16126</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -6747,13 +6762,13 @@
         <v>28423</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6783,13 @@
         <v>15373</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -6783,13 +6798,13 @@
         <v>7100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -6798,10 +6813,10 @@
         <v>22473</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>453</v>
@@ -6825,7 +6840,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6834,13 +6849,13 @@
         <v>3690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6849,13 +6864,13 @@
         <v>4624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6885,7 @@
         <v>920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -6891,7 +6906,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6900,13 +6915,13 @@
         <v>2652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,10 +6992,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6989,13 +7004,13 @@
         <v>8734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -7004,10 +7019,10 @@
         <v>26743</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>473</v>
@@ -7055,13 +7070,13 @@
         <v>49736</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,7 +7097,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -7091,13 +7106,13 @@
         <v>11580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -7106,13 +7121,13 @@
         <v>11580</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>254</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7142,13 @@
         <v>26869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7142,13 +7157,13 @@
         <v>11229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -7157,13 +7172,13 @@
         <v>38097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,7 +7234,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7231,13 +7246,13 @@
         <v>15180</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7246,13 +7261,13 @@
         <v>10719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7261,13 +7276,13 @@
         <v>25899</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7297,13 @@
         <v>31144</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -7297,13 +7312,13 @@
         <v>19802</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -7312,13 +7327,13 @@
         <v>50946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,7 +7354,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -7348,13 +7363,13 @@
         <v>33251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -7363,13 +7378,13 @@
         <v>33251</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7399,13 @@
         <v>153980</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H27" s="7">
         <v>42</v>
@@ -7399,13 +7414,13 @@
         <v>47221</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M27" s="7">
         <v>178</v>
@@ -7414,13 +7429,13 @@
         <v>201201</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,7 +7491,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7488,13 +7503,13 @@
         <v>1936</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -7503,13 +7518,13 @@
         <v>51242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -7518,13 +7533,13 @@
         <v>53178</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7554,13 @@
         <v>2869</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>363</v>
+        <v>539</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7554,13 +7569,13 @@
         <v>8031</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>353</v>
+        <v>540</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7569,13 +7584,13 @@
         <v>10900</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>537</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>538</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,7 +7611,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H31" s="7">
         <v>172</v>
@@ -7605,13 +7620,13 @@
         <v>211139</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M31" s="7">
         <v>172</v>
@@ -7620,13 +7635,13 @@
         <v>211139</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>544</v>
+        <v>289</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7656,13 @@
         <v>568861</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H32" s="7">
         <v>218</v>
@@ -7656,13 +7671,13 @@
         <v>256179</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M32" s="7">
         <v>821</v>
@@ -7671,13 +7686,13 @@
         <v>825040</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7760,13 @@
         <v>59372</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H34" s="7">
         <v>99</v>
@@ -7760,13 +7775,13 @@
         <v>108387</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="M34" s="7">
         <v>154</v>
@@ -7775,13 +7790,13 @@
         <v>167759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>469</v>
+        <v>565</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7811,13 @@
         <v>88308</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -7811,13 +7826,13 @@
         <v>52635</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M35" s="7">
         <v>128</v>
@@ -7826,13 +7841,13 @@
         <v>140943</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7862,13 @@
         <v>935</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="H36" s="7">
         <v>216</v>
@@ -7862,13 +7877,13 @@
         <v>259660</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="M36" s="7">
         <v>217</v>
@@ -7877,13 +7892,13 @@
         <v>260594</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7913,13 @@
         <v>752619</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H37" s="7">
         <v>273</v>
@@ -7913,13 +7928,13 @@
         <v>316360</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M37" s="7">
         <v>1039</v>
@@ -7928,13 +7943,13 @@
         <v>1068979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,7 +8005,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62AS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{356F1E6F-541B-438A-AD39-628D4D48C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9901CA0-CD38-43D1-AABF-F7AFBB49B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B256A0-8E57-4190-95C7-56B50FAA25DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{724EB930-7DE3-4349-AA72-BBA939F97BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="587">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 1 en 2007 (Tasa respuesta: 20,17%)</t>
   </si>
@@ -112,13 +112,13 @@
     <t>16,65%</t>
   </si>
   <si>
-    <t>66,42%</t>
+    <t>81,09%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>83,37%</t>
@@ -127,1696 +127,1678 @@
     <t>42,19%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>16,9%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>24,34%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
     <t>4,82%</t>
   </si>
   <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2016 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>7,3%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77AB25E-B180-4D8E-8059-BD30A2ABB74D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF7A50-B859-4BD6-9A38-A1BF24413B59}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2693,10 +2675,10 @@
         <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,7 +2699,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2726,13 +2708,13 @@
         <v>2066</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2741,13 +2723,13 @@
         <v>2066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2744,13 @@
         <v>1040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2783,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2792,13 +2774,13 @@
         <v>1041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2836,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2866,7 +2848,7 @@
         <v>1853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
@@ -3037,10 +3019,10 @@
         <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3049,13 +3031,13 @@
         <v>11032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3093,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3123,13 +3105,13 @@
         <v>1064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3138,13 +3120,13 @@
         <v>5893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3153,13 +3135,13 @@
         <v>6957</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3156,13 @@
         <v>25310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3189,13 +3171,13 @@
         <v>12285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -3204,13 +3186,13 @@
         <v>37595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3207,13 @@
         <v>1061</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3240,13 +3222,13 @@
         <v>11196</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -3255,13 +3237,13 @@
         <v>12257</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3258,13 @@
         <v>18359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3291,13 +3273,13 @@
         <v>11686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3306,13 +3288,13 @@
         <v>30046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3350,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3380,13 +3362,13 @@
         <v>857</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3395,13 +3377,13 @@
         <v>3197</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3410,13 +3392,13 @@
         <v>4053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3413,13 @@
         <v>27377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -3446,13 +3428,13 @@
         <v>13778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -3461,13 +3443,13 @@
         <v>41155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -3497,13 +3479,13 @@
         <v>36013</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3512,13 +3494,13 @@
         <v>36013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3515,13 @@
         <v>140572</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <v>27</v>
@@ -3548,13 +3530,13 @@
         <v>26939</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M27" s="7">
         <v>170</v>
@@ -3563,13 +3545,13 @@
         <v>167511</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,7 +3607,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3637,13 +3619,13 @@
         <v>886</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3652,13 +3634,13 @@
         <v>8101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3667,13 +3649,13 @@
         <v>8987</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3670,13 @@
         <v>934</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3703,13 +3685,13 @@
         <v>8258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -3718,13 +3700,13 @@
         <v>9192</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3721,13 @@
         <v>965</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>215</v>
@@ -3894,13 +3876,13 @@
         <v>6458</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -3909,13 +3891,13 @@
         <v>27202</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -3924,13 +3906,13 @@
         <v>33660</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3927,13 @@
         <v>72092</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H35" s="7">
         <v>46</v>
@@ -3960,13 +3942,13 @@
         <v>47411</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" s="7">
         <v>116</v>
@@ -3975,13 +3957,13 @@
         <v>119503</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3978,13 @@
         <v>2025</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="H36" s="7">
         <v>267</v>
@@ -4161,7 +4143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEFECCB-5942-4640-B8D3-91BAD1B004FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8CB5AE-26C8-441A-84A2-5772F229B22A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4787,7 +4769,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5044,7 +5026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5062,7 +5044,7 @@
         <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5071,13 +5053,13 @@
         <v>16774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5086,13 +5068,13 @@
         <v>31184</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5089,13 @@
         <v>54957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5122,13 +5104,13 @@
         <v>19349</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -5137,13 +5119,13 @@
         <v>74306</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,7 +5146,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -5173,13 +5155,13 @@
         <v>15292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -5188,13 +5170,13 @@
         <v>15292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5191,13 @@
         <v>6460</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5224,10 +5206,10 @@
         <v>3220</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>311</v>
@@ -5242,7 +5224,7 @@
         <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>313</v>
@@ -5301,7 +5283,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5316,7 +5298,7 @@
         <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>315</v>
@@ -5328,7 +5310,7 @@
         <v>7675</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>316</v>
@@ -5558,7 +5540,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5570,13 +5552,13 @@
         <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>346</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -5585,13 +5567,13 @@
         <v>24621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -5600,13 +5582,13 @@
         <v>25599</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5603,13 @@
         <v>5276</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5636,13 +5618,13 @@
         <v>9632</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -5651,13 +5633,13 @@
         <v>14908</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,7 +5654,7 @@
         <v>2075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>359</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>16</v>
@@ -5690,10 +5672,10 @@
         <v>361</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M31" s="7">
         <v>233</v>
@@ -5702,13 +5684,13 @@
         <v>251004</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5705,13 @@
         <v>546132</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7">
         <v>221</v>
@@ -5738,13 +5720,13 @@
         <v>238837</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>714</v>
@@ -5753,13 +5735,13 @@
         <v>784969</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5809,13 @@
         <v>59271</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H34" s="7">
         <v>88</v>
@@ -5842,13 +5824,13 @@
         <v>96076</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M34" s="7">
         <v>140</v>
@@ -5857,13 +5839,13 @@
         <v>155347</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5860,13 @@
         <v>142949</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -5893,13 +5875,13 @@
         <v>77392</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M35" s="7">
         <v>197</v>
@@ -5908,13 +5890,13 @@
         <v>220341</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5911,13 @@
         <v>3039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H36" s="7">
         <v>285</v>
@@ -5944,13 +5926,13 @@
         <v>306632</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M36" s="7">
         <v>287</v>
@@ -5959,13 +5941,13 @@
         <v>309671</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5962,13 @@
         <v>665857</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H37" s="7">
         <v>246</v>
@@ -5995,13 +5977,13 @@
         <v>265986</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>849</v>
@@ -6010,13 +5992,13 @@
         <v>931843</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E2E1B6-75A4-4A5D-B4A9-9B074BE69C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6143EA6-1A6E-450A-8740-2859676E9D12}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6111,7 +6093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6221,7 +6203,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -6236,7 +6218,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -6251,7 +6233,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -6290,7 +6272,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6305,7 +6287,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6323,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6356,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6374,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6407,7 +6389,7 @@
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6457,13 @@
         <v>7468</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6490,10 +6472,10 @@
         <v>10945</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>11</v>
@@ -6505,13 +6487,13 @@
         <v>18412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6508,13 @@
         <v>4983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6541,13 +6523,13 @@
         <v>1905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -6556,13 +6538,13 @@
         <v>6888</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,7 +6565,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6613,7 +6595,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6610,13 @@
         <v>1989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6658,13 +6640,13 @@
         <v>1989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>436</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,7 +6702,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6732,13 +6714,13 @@
         <v>12297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -6747,13 +6729,13 @@
         <v>16126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -6762,13 +6744,13 @@
         <v>28423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6765,13 @@
         <v>15373</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -6801,10 +6783,10 @@
         <v>217</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>450</v>
+        <v>259</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -6813,13 +6795,13 @@
         <v>22473</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6816,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6849,13 +6831,13 @@
         <v>3690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -6864,13 +6846,13 @@
         <v>4624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6867,13 @@
         <v>920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6900,13 +6882,13 @@
         <v>1732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6915,13 +6897,13 @@
         <v>2652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,7 +6959,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6992,10 +6974,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -7004,13 +6986,13 @@
         <v>8734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -7019,13 +7001,13 @@
         <v>26743</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7022,13 @@
         <v>33939</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -7055,13 +7037,13 @@
         <v>15797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -7070,13 +7052,13 @@
         <v>49736</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,7 +7079,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -7106,13 +7088,13 @@
         <v>11580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -7121,13 +7103,13 @@
         <v>11580</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7124,13 @@
         <v>26869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -7157,13 +7139,13 @@
         <v>11229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -7172,13 +7154,13 @@
         <v>38097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,7 +7216,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7246,13 +7228,13 @@
         <v>15180</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7261,13 +7243,13 @@
         <v>10719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7276,13 +7258,13 @@
         <v>25899</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7279,13 @@
         <v>31144</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -7312,13 +7294,13 @@
         <v>19802</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -7327,13 +7309,13 @@
         <v>50946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>508</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7345,13 @@
         <v>33251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -7378,13 +7360,13 @@
         <v>33251</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7381,13 @@
         <v>153980</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H27" s="7">
         <v>42</v>
@@ -7414,13 +7396,13 @@
         <v>47221</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M27" s="7">
         <v>178</v>
@@ -7429,13 +7411,13 @@
         <v>201201</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,7 +7473,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7503,13 +7485,13 @@
         <v>1936</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>530</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -7518,13 +7500,13 @@
         <v>51242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>533</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -7533,13 +7515,13 @@
         <v>53178</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7536,13 @@
         <v>2869</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -7569,13 +7551,13 @@
         <v>8031</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7584,13 +7566,13 @@
         <v>10900</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>537</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,7 +7593,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H31" s="7">
         <v>172</v>
@@ -7620,13 +7602,13 @@
         <v>211139</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M31" s="7">
         <v>172</v>
@@ -7635,13 +7617,13 @@
         <v>211139</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>289</v>
+        <v>544</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7638,13 @@
         <v>568861</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H32" s="7">
         <v>218</v>
@@ -7671,13 +7653,13 @@
         <v>256179</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M32" s="7">
         <v>821</v>
@@ -7686,13 +7668,13 @@
         <v>825040</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7742,13 @@
         <v>59372</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H34" s="7">
         <v>99</v>
@@ -7775,13 +7757,13 @@
         <v>108387</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>562</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M34" s="7">
         <v>154</v>
@@ -7790,13 +7772,13 @@
         <v>167759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7793,13 @@
         <v>88308</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>568</v>
+        <v>451</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -7826,13 +7808,13 @@
         <v>52635</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="M35" s="7">
         <v>128</v>
@@ -7841,13 +7823,13 @@
         <v>140943</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>575</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7844,13 @@
         <v>935</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H36" s="7">
         <v>216</v>
@@ -7877,13 +7859,13 @@
         <v>259660</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M36" s="7">
         <v>217</v>
@@ -7892,13 +7874,13 @@
         <v>260594</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7895,13 @@
         <v>752619</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H37" s="7">
         <v>273</v>
@@ -7928,13 +7910,13 @@
         <v>316360</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M37" s="7">
         <v>1039</v>
@@ -7943,13 +7925,13 @@
         <v>1068979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
